--- a/stepper_motor_speed.xlsx
+++ b/stepper_motor_speed.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.wojciechowski\Desktop\protoDEV_setup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\protoDEV-coreXY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="42BYGHM809_xy-axis" sheetId="1" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -653,14 +653,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17">
         <f>B17/B10*100</f>
-        <v>70.588235294117652</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -707,7 +707,7 @@
       </c>
       <c r="B24" s="4">
         <f>B36/(B$15*B$16)</f>
-        <v>397.34136180354989</v>
+        <v>444.86784035591523</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="B25" s="4">
         <f>B24*B$15*B$16/1000</f>
-        <v>44.947254847217565</v>
+        <v>50.323450101061134</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -728,7 +728,7 @@
       </c>
       <c r="B26" s="4">
         <f>B37/(B$15*B$16)</f>
-        <v>532.91918989480064</v>
+        <v>605.47747978236691</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -737,7 +737,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26*B$15*B$16/1000</f>
-        <v>60.283818760899841</v>
+        <v>68.491612512981348</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15">
@@ -751,7 +751,7 @@
       </c>
       <c r="B31">
         <f>B9*B17+B20</f>
-        <v>3.16</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -760,7 +760,7 @@
       </c>
       <c r="B32">
         <f>PI()*B17*B8*0.001*180/B7</f>
-        <v>2.1111502632123407</v>
+        <v>1.7592918860102842</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -778,7 +778,7 @@
       </c>
       <c r="B34">
         <f>SQRT(B19^2-(B20+B31)^2)/((B32+B33)*B18)</f>
-        <v>7.023008569877744</v>
+        <v>7.8630390782908011</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -787,7 +787,7 @@
       </c>
       <c r="B35">
         <f>(-B33+SQRT(B33^2+(B33^2+B32^2)*(B19^2-(B31+B20)^2)))/((B33^2+B32^2)*B18)</f>
-        <v>9.4193466813905999</v>
+        <v>10.701814455153336</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -796,7 +796,7 @@
       </c>
       <c r="B36">
         <f>B34*(360/B$7)*16</f>
-        <v>44947.254847217562</v>
+        <v>50323.450101061127</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +805,7 @@
       </c>
       <c r="B37">
         <f>B35*(360/B$7)*16</f>
-        <v>60283.818760899841</v>
+        <v>68491.612512981344</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +825,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -946,14 +946,14 @@
         <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17">
         <f>B17/B10*100</f>
-        <v>70.588235294117652</v>
+        <v>58.82352941176471</v>
       </c>
       <c r="F17" t="s">
         <v>34</v>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B24" s="4">
         <f>B36/(B$15*B$16)</f>
-        <v>112.3681371180439</v>
+        <v>125.80862525265282</v>
       </c>
       <c r="D24" t="s">
         <v>23</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B25" s="4">
         <f>B24*B$15*B$16/1000</f>
-        <v>44.947254847217565</v>
+        <v>50.323450101061127</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B26" s="4">
         <f>B37/(B$15*B$16)</f>
-        <v>150.7095469022496</v>
+        <v>171.22903128245335</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26*B$15*B$16/1000</f>
-        <v>60.283818760899841</v>
+        <v>68.491612512981348</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B31">
         <f>B9*B17+B20</f>
-        <v>3.16</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B32">
         <f>PI()*B17*B8*0.001*180/B7</f>
-        <v>2.1111502632123407</v>
+        <v>1.7592918860102842</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B34">
         <f>SQRT(B19^2-(B20+B31)^2)/((B32+B33)*B18)</f>
-        <v>7.023008569877744</v>
+        <v>7.8630390782908011</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B35">
         <f>(-B33+SQRT(B33^2+(B33^2+B32^2)*(B19^2-(B31+B20)^2)))/((B33^2+B32^2)*B18)</f>
-        <v>9.4193466813905999</v>
+        <v>10.701814455153336</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B36">
         <f>B34*(360/B$7)*16</f>
-        <v>44947.254847217562</v>
+        <v>50323.450101061127</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B37">
         <f>B35*(360/B$7)*16</f>
-        <v>60283.818760899841</v>
+        <v>68491.612512981344</v>
       </c>
     </row>
   </sheetData>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
